--- a/Angel_Broking/Angel/DriverFile/UIMAP.xlsx
+++ b/Angel_Broking/Angel/DriverFile/UIMAP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>rowId</t>
   </si>
@@ -102,6 +102,72 @@
   </si>
   <si>
     <t>//span[contains(text(),'Offline Journey')]</t>
+  </si>
+  <si>
+    <t>Scrutiny_Header_Element</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Scrutiny')]</t>
+  </si>
+  <si>
+    <t>Date_Field_Element</t>
+  </si>
+  <si>
+    <t>//input[@id='mat-input-1']</t>
+  </si>
+  <si>
+    <t>Select_Status_Element</t>
+  </si>
+  <si>
+    <t>//div[@class='mat-select-arrow-wrapper ng-tns-c122-14']</t>
+  </si>
+  <si>
+    <t>Status_Type_Element</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Approved')]</t>
+  </si>
+  <si>
+    <t>Search_Element</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Search')]</t>
+  </si>
+  <si>
+    <t>Calendar_Tag</t>
+  </si>
+  <si>
+    <t>//*[@class='mat-datepicker-toggle-default-icon ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Download_Element</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Download')]</t>
+  </si>
+  <si>
+    <t>Success_Toggel</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Success.')]</t>
+  </si>
+  <si>
+    <t>Dates_Number</t>
+  </si>
+  <si>
+    <t>//div[@class='mat-calendar-body-cell-content']</t>
+  </si>
+  <si>
+    <t>Application_Number</t>
+  </si>
+  <si>
+    <t>//a[@class='ng-tns-c276-12 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Enter_Party_Code</t>
+  </si>
+  <si>
+    <t>//input[@name='ref_pan_appl_no']</t>
   </si>
   <si>
     <t>Email_To_Recipients</t>
@@ -122,9 +188,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,10 +237,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,21 +316,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,71 +337,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,25 +621,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,7 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,17 +674,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,158 +717,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1360,56 +1426,126 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6"/>
@@ -1838,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Angel_Broking/Angel/DriverFile/UIMAP.xlsx
+++ b/Angel_Broking/Angel/DriverFile/UIMAP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>rowId</t>
   </si>
@@ -168,6 +168,69 @@
   </si>
   <si>
     <t>//input[@name='ref_pan_appl_no']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Pending for Scrutiny')]</t>
+  </si>
+  <si>
+    <t>Approve_IPV_Element</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'Approve IPV')]</t>
+  </si>
+  <si>
+    <t>Client_Code_1</t>
+  </si>
+  <si>
+    <t>//span[@class='mat-select-placeholder ng-tns-c122-45 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Client_Code_2</t>
+  </si>
+  <si>
+    <t>//span[@class='mat-select-placeholder ng-tns-c122-49 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Relationship_with_Client1</t>
+  </si>
+  <si>
+    <t>//span[@class='mat-select-placeholder ng-tns-c122-47 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Relationship_with_Client2</t>
+  </si>
+  <si>
+    <t>//span[@class='mat-select-placeholder ng-tns-c122-51 ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Select_Client_Code_1</t>
+  </si>
+  <si>
+    <t>//*[@id='mat-option-1008']</t>
+  </si>
+  <si>
+    <t>Select_Client_Code_2</t>
+  </si>
+  <si>
+    <t>//*[@id='mat-option-1009']</t>
+  </si>
+  <si>
+    <t>Select_Relationship_with_Client1</t>
+  </si>
+  <si>
+    <t>//*[@id='mat-option-994']</t>
+  </si>
+  <si>
+    <t>Select_Relationship_with_Client2</t>
+  </si>
+  <si>
+    <t>//*[@id='mat-option-1000']</t>
+  </si>
+  <si>
+    <t>Approve_Element</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Approve')]</t>
   </si>
   <si>
     <t>Email_To_Recipients</t>
@@ -187,12 +250,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,21 +288,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,9 +308,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +336,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,14 +379,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,187 +444,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,17 +677,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +706,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,6 +735,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -694,15 +760,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,18 +777,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,131 +796,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -887,7 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1210,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1548,59 +1604,125 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
@@ -1767,9 +1889,9 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="7"/>
@@ -1974,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
